--- a/statesDF_vs carol.xlsx
+++ b/statesDF_vs carol.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\Documents\Download-Tweets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaoa\Documents\Download-Tweets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C75F52E-B052-4D36-B941-2C562D222E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6E6461-C28E-4BC7-843E-7D47266047C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -822,16 +822,16 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -842,7 +842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -857,7 +857,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -872,7 +872,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -887,7 +887,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -902,7 +902,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -916,7 +916,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -931,7 +931,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -945,7 +945,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -960,7 +960,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -975,7 +975,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -989,7 +989,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1239,13 +1239,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C29">
-        <f>SUM(C2:C28)</f>
-        <v>62701</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C31" s="2"/>
     </row>
   </sheetData>
